--- a/Approximationen/CC investment costs.xlsx
+++ b/Approximationen/CC investment costs.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_96A736D2B46924CC115B999023FD30718E065E74" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{5AEC86CC-5009-405F-AEF7-DC587F92C425}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagramm1" sheetId="2" r:id="rId1"/>
     <sheet name="Daten" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Leistung kW</t>
   </si>
@@ -74,15 +76,25 @@
   <si>
     <t>Gesamt</t>
   </si>
+  <si>
+    <t xml:space="preserve">y = 0,0374x + 0,3129 </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -148,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -156,6 +168,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -174,13 +189,25 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -243,27 +270,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>31.7515</c:v>
+                  <c:v>28.422899999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47.356499999999997</c:v>
+                  <c:v>46.532899999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78.566499999999991</c:v>
+                  <c:v>82.752899999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>99.776499999999999</c:v>
+                  <c:v>108.97290000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>120.98650000000001</c:v>
+                  <c:v>135.19290000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>149.69650000000001</c:v>
+                  <c:v>168.91290000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A5F0-4819-AB47-C9B99A6C40A7}"/>
             </c:ext>
@@ -331,27 +359,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>73.566499999999991</c:v>
+                  <c:v>77.752899999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>92.276499999999999</c:v>
+                  <c:v>101.47290000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110.98650000000001</c:v>
+                  <c:v>125.19290000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>124.6965</c:v>
+                  <c:v>143.91290000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>133.40649999999999</c:v>
+                  <c:v>157.63290000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>137.1165</c:v>
+                  <c:v>166.35290000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A5F0-4819-AB47-C9B99A6C40A7}"/>
             </c:ext>
@@ -423,33 +452,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>107.2765</c:v>
+                  <c:v>116.47290000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>130.98650000000001</c:v>
+                  <c:v>145.19290000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>162.19650000000001</c:v>
+                  <c:v>181.41290000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>178.40649999999999</c:v>
+                  <c:v>202.63290000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>207.1165</c:v>
+                  <c:v>236.35290000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>215.82650000000001</c:v>
+                  <c:v>250.0729</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>320.66649999999998</c:v>
+                  <c:v>374.9529</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>385.50650000000002</c:v>
+                  <c:v>459.8329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A5F0-4819-AB47-C9B99A6C40A7}"/>
             </c:ext>
@@ -484,6 +514,38 @@
             <c:trendlineType val="linear"/>
             <c:backward val="50"/>
             <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -531,39 +593,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>31.7515</c:v>
+                  <c:v>28.422899999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47.356499999999997</c:v>
+                  <c:v>46.532899999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78.566499999999991</c:v>
+                  <c:v>82.752899999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>73.566499999999991</c:v>
+                  <c:v>77.752899999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.031755024742594</c:v>
+                  <c:v>21.200155024742593</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.360881044538736</c:v>
+                  <c:v>31.531281044538737</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51.918741152101667</c:v>
+                  <c:v>50.093141152101666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>67.45429749865616</c:v>
+                  <c:v>67.632697498656171</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>82.516146703667772</c:v>
+                  <c:v>84.698546703667773</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>97.296579019124096</c:v>
+                  <c:v>101.48297901912409</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-A5F0-4819-AB47-C9B99A6C40A7}"/>
             </c:ext>
@@ -644,42 +707,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>26.031755024742594</c:v>
+                  <c:v>21.200155024742593</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.360881044538736</c:v>
+                  <c:v>31.531281044538737</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.918741152101667</c:v>
+                  <c:v>50.093141152101666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>67.45429749865616</c:v>
+                  <c:v>67.632697498656171</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>82.516146703667772</c:v>
+                  <c:v>84.698546703667773</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>97.296579019124096</c:v>
+                  <c:v>101.48297901912409</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>133.52829534881931</c:v>
+                  <c:v>142.7246953488193</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>169.15788117834344</c:v>
+                  <c:v>183.36428117834345</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>239.46117310494634</c:v>
+                  <c:v>263.68757310494635</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>309.04252640436539</c:v>
+                  <c:v>343.28892640436538</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>447.05915835393984</c:v>
+                  <c:v>501.34555835393985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-A5F0-4819-AB47-C9B99A6C40A7}"/>
             </c:ext>
@@ -713,7 +777,39 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:intercept val="45"/>
+            <c:intercept val="37"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -803,95 +899,105 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>78.566499999999991</c:v>
+                  <c:v>82.752899999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73.566499999999991</c:v>
+                  <c:v>77.752899999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>99.776499999999999</c:v>
+                  <c:v>108.97290000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>92.276499999999999</c:v>
+                  <c:v>101.47290000000001</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00">
-                  <c:v>107.2765</c:v>
+                  <c:v>116.47290000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>120.98650000000001</c:v>
+                  <c:v>135.19290000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>110.98650000000001</c:v>
+                  <c:v>125.19290000000001</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00">
-                  <c:v>130.98650000000001</c:v>
+                  <c:v>145.19290000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>149.69650000000001</c:v>
+                  <c:v>168.91290000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>124.6965</c:v>
+                  <c:v>143.91290000000001</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00">
-                  <c:v>162.19650000000001</c:v>
+                  <c:v>181.41290000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>133.40649999999999</c:v>
+                  <c:v>157.63290000000001</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00">
-                  <c:v>178.40649999999999</c:v>
+                  <c:v>202.63290000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>137.1165</c:v>
+                  <c:v>166.35290000000001</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00">
-                  <c:v>207.1165</c:v>
+                  <c:v>236.35290000000001</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00">
-                  <c:v>215.82650000000001</c:v>
+                  <c:v>250.0729</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>97.296579019124096</c:v>
+                  <c:v>101.48297901912409</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>133.52829534881931</c:v>
+                  <c:v>142.7246953488193</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>169.15788117834344</c:v>
+                  <c:v>183.36428117834345</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>239.46117310494634</c:v>
+                  <c:v>263.68757310494635</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>309.04252640436539</c:v>
+                  <c:v>343.28892640436538</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00">
-                  <c:v>320.66649999999998</c:v>
+                  <c:v>374.9529</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00">
-                  <c:v>385.50650000000002</c:v>
+                  <c:v>459.8329</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>447.05915835393984</c:v>
+                  <c:v>501.34555835393985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-A5F0-4819-AB47-C9B99A6C40A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="79147008"/>
-        <c:axId val="79149312"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="73964160"/>
+        <c:axId val="74392704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79147008"/>
+        <c:axId val="73964160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4000"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -948,7 +1054,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -956,8 +1062,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -984,10 +1108,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79149312"/>
+        <c:crossAx val="74392704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -995,10 +1119,11 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79149312"/>
+        <c:axId val="74392704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1071,7 +1196,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1079,8 +1204,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1107,10 +1250,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79147008"/>
+        <c:crossAx val="73964160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1145,7 +1288,7 @@
           <c:x val="0.14243885796615974"/>
           <c:y val="8.7581229370830224E-2"/>
           <c:w val="0.26423842874297826"/>
-          <c:h val="0.24252885056034673"/>
+          <c:h val="0.24252885056034681"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1174,19 +1317,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1205,7 +1349,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -1768,10 +1912,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -1783,13 +1927,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9305925" cy="6000750"/>
+    <xdr:ext cx="9301370" cy="6013174"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B9924BC-ECF7-4051-ADB4-C1A733B0CAF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B9924BC-ECF7-4051-ADB4-C1A733B0CAF9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2067,21 +2211,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
@@ -2091,7 +2235,7 @@
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>7</v>
       </c>
@@ -2099,15 +2243,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="I2" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2126,11 +2273,8 @@
       <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>125</v>
       </c>
@@ -2142,11 +2286,11 @@
         <v>150</v>
       </c>
       <c r="F4">
-        <f>0.0207*E4+6.1465</f>
-        <v>9.2515000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <f>0.0374*E4+0.3129</f>
+        <v>5.9229000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>250</v>
       </c>
@@ -2158,11 +2302,11 @@
         <v>300</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F14" si="1">0.0207*E5+6.1465</f>
-        <v>12.3565</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <f t="shared" ref="F5:F14" si="1">0.0374*E5+0.3129</f>
+        <v>11.532900000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>500</v>
       </c>
@@ -2178,10 +2322,10 @@
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>18.566499999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>22.7529</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>750</v>
       </c>
@@ -2200,10 +2344,10 @@
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>24.776499999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>33.972900000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1000</v>
       </c>
@@ -2222,10 +2366,10 @@
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>30.986499999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>45.192900000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1250</v>
       </c>
@@ -2244,10 +2388,10 @@
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>37.1965</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>56.4129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1500</v>
       </c>
@@ -2263,10 +2407,10 @@
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>43.406499999999994</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>67.632900000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1750</v>
       </c>
@@ -2282,10 +2426,10 @@
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>49.616500000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>78.852900000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2000</v>
       </c>
@@ -2298,10 +2442,10 @@
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>55.826499999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>90.072900000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3000</v>
       </c>
@@ -2314,10 +2458,10 @@
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>80.666499999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>134.95290000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4000</v>
       </c>
@@ -2330,10 +2474,10 @@
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>105.5065</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>179.83290000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -2341,153 +2485,153 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>125</v>
       </c>
       <c r="B18">
         <f>B4+F4</f>
-        <v>31.7515</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>28.422899999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>250</v>
       </c>
       <c r="B19">
         <f t="shared" ref="B19:B22" si="2">B5+F5</f>
-        <v>47.356499999999997</v>
+        <v>46.532899999999998</v>
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>500</v>
       </c>
       <c r="B20">
         <f t="shared" si="2"/>
-        <v>78.566499999999991</v>
+        <v>82.752899999999997</v>
       </c>
       <c r="C20">
         <f>C6+F6</f>
-        <v>73.566499999999991</v>
+        <v>77.752899999999997</v>
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>750</v>
       </c>
       <c r="B21">
         <f t="shared" si="2"/>
-        <v>99.776499999999999</v>
+        <v>108.97290000000001</v>
       </c>
       <c r="C21">
         <f t="shared" ref="C21:C25" si="3">C7+F7</f>
-        <v>92.276499999999999</v>
+        <v>101.47290000000001</v>
       </c>
       <c r="D21" s="1">
         <f>D7+F7</f>
-        <v>107.2765</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>116.47290000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1000</v>
       </c>
       <c r="B22">
         <f t="shared" si="2"/>
-        <v>120.98650000000001</v>
+        <v>135.19290000000001</v>
       </c>
       <c r="C22">
         <f t="shared" si="3"/>
-        <v>110.98650000000001</v>
+        <v>125.19290000000001</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" ref="D22:D28" si="4">D8+F8</f>
-        <v>130.98650000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>145.19290000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1250</v>
       </c>
       <c r="B23">
         <f>B9+F9</f>
-        <v>149.69650000000001</v>
+        <v>168.91290000000001</v>
       </c>
       <c r="C23">
         <f t="shared" si="3"/>
-        <v>124.6965</v>
+        <v>143.91290000000001</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="4"/>
-        <v>162.19650000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>181.41290000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1500</v>
       </c>
       <c r="C24">
         <f t="shared" si="3"/>
-        <v>133.40649999999999</v>
+        <v>157.63290000000001</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="4"/>
-        <v>178.40649999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>202.63290000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1750</v>
       </c>
       <c r="C25">
         <f t="shared" si="3"/>
-        <v>137.1165</v>
+        <v>166.35290000000001</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="4"/>
-        <v>207.1165</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>236.35290000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2000</v>
       </c>
       <c r="D26" s="1">
         <f>D12+F12</f>
-        <v>215.82650000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>250.0729</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3000</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="4"/>
-        <v>320.66649999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>374.9529</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4000</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="4"/>
-        <v>385.50650000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>459.8329</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>11</v>
       </c>
@@ -2500,7 +2644,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>12</v>
       </c>
@@ -2517,7 +2661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>50</v>
       </c>
@@ -2530,15 +2674,15 @@
         <v>60</v>
       </c>
       <c r="D35">
-        <f>0.0207*C35+6.1465</f>
-        <v>7.3884999999999996</v>
+        <f>0.0374*C35+0.3129</f>
+        <v>2.5569000000000002</v>
       </c>
       <c r="E35">
         <f t="shared" ref="E35:E45" si="7">B35+D35</f>
-        <v>26.031755024742594</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>21.200155024742593</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>100</v>
       </c>
@@ -2551,15 +2695,15 @@
         <v>120</v>
       </c>
       <c r="D36">
-        <f t="shared" ref="D36:D44" si="8">0.0207*C36+6.1465</f>
-        <v>8.6304999999999996</v>
+        <f t="shared" ref="D36:D45" si="8">0.0374*C36+0.3129</f>
+        <v>4.8009000000000004</v>
       </c>
       <c r="E36">
         <f t="shared" si="7"/>
-        <v>35.360881044538736</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>31.531281044538737</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>200</v>
       </c>
@@ -2573,14 +2717,14 @@
       </c>
       <c r="D37">
         <f t="shared" si="8"/>
-        <v>11.1145</v>
+        <v>9.2889000000000017</v>
       </c>
       <c r="E37">
         <f t="shared" si="7"/>
-        <v>51.918741152101667</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>50.093141152101666</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>300</v>
       </c>
@@ -2594,14 +2738,14 @@
       </c>
       <c r="D38">
         <f t="shared" si="8"/>
-        <v>13.5985</v>
+        <v>13.776900000000001</v>
       </c>
       <c r="E38">
         <f t="shared" si="7"/>
-        <v>67.45429749865616</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>67.632697498656171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>400</v>
       </c>
@@ -2615,14 +2759,14 @@
       </c>
       <c r="D39">
         <f t="shared" si="8"/>
-        <v>16.0825</v>
+        <v>18.264900000000001</v>
       </c>
       <c r="E39">
         <f t="shared" si="7"/>
-        <v>82.516146703667772</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>84.698546703667773</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>500</v>
       </c>
@@ -2636,14 +2780,14 @@
       </c>
       <c r="D40">
         <f t="shared" si="8"/>
-        <v>18.566499999999998</v>
+        <v>22.7529</v>
       </c>
       <c r="E40">
         <f t="shared" si="7"/>
-        <v>97.296579019124096</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>101.48297901912409</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>750</v>
       </c>
@@ -2657,14 +2801,14 @@
       </c>
       <c r="D41">
         <f t="shared" si="8"/>
-        <v>24.776499999999999</v>
+        <v>33.972900000000003</v>
       </c>
       <c r="E41">
         <f t="shared" si="7"/>
-        <v>133.52829534881931</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>142.7246953488193</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1000</v>
       </c>
@@ -2678,14 +2822,14 @@
       </c>
       <c r="D42">
         <f t="shared" si="8"/>
-        <v>30.986499999999999</v>
+        <v>45.192900000000002</v>
       </c>
       <c r="E42">
         <f t="shared" si="7"/>
-        <v>169.15788117834344</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>183.36428117834345</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1500</v>
       </c>
@@ -2699,14 +2843,14 @@
       </c>
       <c r="D43">
         <f t="shared" si="8"/>
-        <v>43.406499999999994</v>
+        <v>67.632900000000006</v>
       </c>
       <c r="E43">
         <f t="shared" si="7"/>
-        <v>239.46117310494634</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>263.68757310494635</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2000</v>
       </c>
@@ -2720,14 +2864,14 @@
       </c>
       <c r="D44">
         <f t="shared" si="8"/>
-        <v>55.826499999999996</v>
+        <v>90.072900000000004</v>
       </c>
       <c r="E44">
         <f t="shared" si="7"/>
-        <v>309.04252640436539</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>343.28892640436538</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3000</v>
       </c>
@@ -2740,12 +2884,12 @@
         <v>3600</v>
       </c>
       <c r="D45">
-        <f>0.0207*C45+6.1465</f>
-        <v>80.666499999999999</v>
+        <f t="shared" si="8"/>
+        <v>134.95290000000003</v>
       </c>
       <c r="E45">
         <f t="shared" si="7"/>
-        <v>447.05915835393984</v>
+        <v>501.34555835393985</v>
       </c>
     </row>
   </sheetData>

--- a/Approximationen/CC investment costs.xlsx
+++ b/Approximationen/CC investment costs.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
   <xr:revisionPtr revIDLastSave="5" documentId="11_96A736D2B46924CC115B999023FD30718E065E74" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{5AEC86CC-5009-405F-AEF7-DC587F92C425}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagramm1" sheetId="2" r:id="rId1"/>
     <sheet name="Daten" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1915,7 +1915,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -2221,7 +2221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>

--- a/Approximationen/CC investment costs.xlsx
+++ b/Approximationen/CC investment costs.xlsx
@@ -5,13 +5,13 @@
   <workbookPr filterPrivacy="1"/>
   <xr:revisionPtr revIDLastSave="5" documentId="11_96A736D2B46924CC115B999023FD30718E065E74" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{5AEC86CC-5009-405F-AEF7-DC587F92C425}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagramm1" sheetId="2" r:id="rId1"/>
     <sheet name="Daten" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1915,7 +1915,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -2221,7 +2221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>

--- a/Approximationen/CC investment costs.xlsx
+++ b/Approximationen/CC investment costs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_96A736D2B46924CC115B999023FD30718E065E74" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{5AEC86CC-5009-405F-AEF7-DC587F92C425}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="11_96A736D2B46924CC115B999023FD30718E065E74" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{DAA3B75D-E12D-4CC9-9EE2-929939C59EE8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagramm1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Leistung kW</t>
   </si>
@@ -77,24 +77,32 @@
     <t>Gesamt</t>
   </si>
   <si>
-    <t xml:space="preserve">y = 0,0374x + 0,3129 </t>
+    <t>y =</t>
+  </si>
+  <si>
+    <t>*x</t>
+  </si>
+  <si>
+    <t>mit Rückkühlung:</t>
+  </si>
+  <si>
+    <t>Stützstellen ohne Rückkühlung</t>
+  </si>
+  <si>
+    <t>kW</t>
+  </si>
+  <si>
+    <t>Stützstellen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -160,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -168,9 +176,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -270,22 +275,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>28.422899999999998</c:v>
+                  <c:v>32.234999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.532899999999998</c:v>
+                  <c:v>54.47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>82.752899999999997</c:v>
+                  <c:v>98.94</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>108.97290000000001</c:v>
+                  <c:v>133.41</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>135.19290000000001</c:v>
+                  <c:v>167.88</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>168.91290000000001</c:v>
+                  <c:v>209.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -359,22 +364,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>77.752899999999997</c:v>
+                  <c:v>93.94</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>101.47290000000001</c:v>
+                  <c:v>125.91</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>125.19290000000001</c:v>
+                  <c:v>157.88</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>143.91290000000001</c:v>
+                  <c:v>184.85</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>157.63290000000001</c:v>
+                  <c:v>206.82</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>166.35290000000001</c:v>
+                  <c:v>223.79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -452,28 +457,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>116.47290000000001</c:v>
+                  <c:v>140.91</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>145.19290000000001</c:v>
+                  <c:v>177.88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>181.41290000000001</c:v>
+                  <c:v>222.35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>202.63290000000001</c:v>
+                  <c:v>251.82</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>236.35290000000001</c:v>
+                  <c:v>293.78999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>250.0729</c:v>
+                  <c:v>315.76</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>374.9529</c:v>
+                  <c:v>473.64</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>459.8329</c:v>
+                  <c:v>591.52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -515,37 +520,7 @@
             <c:backward val="50"/>
             <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -593,34 +568,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>28.422899999999998</c:v>
+                  <c:v>32.234999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.532899999999998</c:v>
+                  <c:v>54.47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>82.752899999999997</c:v>
+                  <c:v>98.94</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>77.752899999999997</c:v>
+                  <c:v>93.94</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.200155024742593</c:v>
+                  <c:v>22.537255024742592</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.531281044538737</c:v>
+                  <c:v>34.518381044538735</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50.093141152101666</c:v>
+                  <c:v>56.380241152101668</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>67.632697498656171</c:v>
+                  <c:v>77.219797498656163</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>84.698546703667773</c:v>
+                  <c:v>97.585646703667777</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>101.48297901912409</c:v>
+                  <c:v>117.67007901912409</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -707,37 +682,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>21.200155024742593</c:v>
+                  <c:v>22.537255024742592</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.531281044538737</c:v>
+                  <c:v>34.518381044538735</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50.093141152101666</c:v>
+                  <c:v>56.380241152101668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>67.632697498656171</c:v>
+                  <c:v>77.219797498656163</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>84.698546703667773</c:v>
+                  <c:v>97.585646703667777</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>101.48297901912409</c:v>
+                  <c:v>117.67007901912409</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>142.7246953488193</c:v>
+                  <c:v>167.16179534881928</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>183.36428117834345</c:v>
+                  <c:v>216.05138117834343</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>263.68757310494635</c:v>
+                  <c:v>312.87467310494634</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>343.28892640436538</c:v>
+                  <c:v>408.97602640436537</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>501.34555835393985</c:v>
+                  <c:v>600.03265835393984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -768,7 +743,7 @@
           <c:trendline>
             <c:name>Regression</c:name>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="25400" cap="rnd">
                 <a:solidFill>
                   <a:srgbClr val="C00000"/>
                 </a:solidFill>
@@ -779,37 +754,7 @@
             <c:trendlineType val="linear"/>
             <c:intercept val="37"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -899,76 +844,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>82.752899999999997</c:v>
+                  <c:v>98.94</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77.752899999999997</c:v>
+                  <c:v>93.94</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>108.97290000000001</c:v>
+                  <c:v>133.41</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>101.47290000000001</c:v>
+                  <c:v>125.91</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00">
-                  <c:v>116.47290000000001</c:v>
+                  <c:v>140.91</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>135.19290000000001</c:v>
+                  <c:v>167.88</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>125.19290000000001</c:v>
+                  <c:v>157.88</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00">
-                  <c:v>145.19290000000001</c:v>
+                  <c:v>177.88</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>168.91290000000001</c:v>
+                  <c:v>209.85</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>143.91290000000001</c:v>
+                  <c:v>184.85</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00">
-                  <c:v>181.41290000000001</c:v>
+                  <c:v>222.35</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>157.63290000000001</c:v>
+                  <c:v>206.82</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00">
-                  <c:v>202.63290000000001</c:v>
+                  <c:v>251.82</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>166.35290000000001</c:v>
+                  <c:v>223.79</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00">
-                  <c:v>236.35290000000001</c:v>
+                  <c:v>293.78999999999996</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00">
-                  <c:v>250.0729</c:v>
+                  <c:v>315.76</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>101.48297901912409</c:v>
+                  <c:v>117.67007901912409</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>142.7246953488193</c:v>
+                  <c:v>167.16179534881928</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>183.36428117834345</c:v>
+                  <c:v>216.05138117834343</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>263.68757310494635</c:v>
+                  <c:v>312.87467310494634</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>343.28892640436538</c:v>
+                  <c:v>408.97602640436537</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00">
-                  <c:v>374.9529</c:v>
+                  <c:v>473.64</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00">
-                  <c:v>459.8329</c:v>
+                  <c:v>591.52</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>501.34555835393985</c:v>
+                  <c:v>600.03265835393984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -977,6 +922,68 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-A5F0-4819-AB47-C9B99A6C40A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Fit ohne Rückkühlung</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Daten!$M$18:$M$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Daten!$N$18:$N$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>372.59999999999991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2510-4ECB-9520-8CE89AF2E0B4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1281,14 +1288,18 @@
         <c:idx val="6"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.14243885796615974"/>
           <c:y val="8.7581229370830224E-2"/>
-          <c:w val="0.26423842874297826"/>
-          <c:h val="0.24252885056034681"/>
+          <c:w val="0.26436782968530442"/>
+          <c:h val="0.24202775439393573"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1915,7 +1926,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -2219,10 +2230,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2233,9 +2244,11 @@
     <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>7</v>
       </c>
@@ -2243,18 +2256,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>6.4899999999999999E-2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2274,7 +2293,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>125</v>
       </c>
@@ -2286,11 +2305,11 @@
         <v>150</v>
       </c>
       <c r="F4">
-        <f>0.0374*E4+0.3129</f>
-        <v>5.9229000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <f>$J$2*E4</f>
+        <v>9.7349999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>250</v>
       </c>
@@ -2302,11 +2321,11 @@
         <v>300</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F14" si="1">0.0374*E5+0.3129</f>
-        <v>11.532900000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F5:F14" si="1">$J$2*E5</f>
+        <v>19.47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>500</v>
       </c>
@@ -2322,10 +2341,10 @@
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>22.7529</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>38.94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>750</v>
       </c>
@@ -2344,10 +2363,10 @@
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>33.972900000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>58.41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1000</v>
       </c>
@@ -2366,10 +2385,10 @@
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>45.192900000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>77.88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1250</v>
       </c>
@@ -2388,10 +2407,10 @@
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>56.4129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>97.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1500</v>
       </c>
@@ -2407,10 +2426,10 @@
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>67.632900000000006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>116.82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1750</v>
       </c>
@@ -2426,10 +2445,10 @@
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>78.852900000000005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>136.29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2000</v>
       </c>
@@ -2442,10 +2461,10 @@
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>90.072900000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>155.76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3000</v>
       </c>
@@ -2458,10 +2477,10 @@
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>134.95290000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>233.64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4000</v>
       </c>
@@ -2474,161 +2493,224 @@
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>179.83290000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>311.52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" t="s">
+        <v>9</v>
+      </c>
+      <c r="M17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>125</v>
       </c>
       <c r="B18">
         <f>B4+F4</f>
-        <v>28.422899999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>32.234999999999999</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>250</v>
       </c>
       <c r="B19">
         <f t="shared" ref="B19:B22" si="2">B5+F5</f>
-        <v>46.532899999999998</v>
+        <v>54.47</v>
       </c>
       <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>500</v>
+      </c>
+      <c r="K19">
+        <f>0.222*J19</f>
+        <v>111</v>
+      </c>
+      <c r="M19">
+        <v>500</v>
+      </c>
+      <c r="N19">
+        <f>0.222*500-0.0649*500</f>
+        <v>78.55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>500</v>
       </c>
       <c r="B20">
         <f t="shared" si="2"/>
-        <v>82.752899999999997</v>
+        <v>98.94</v>
       </c>
       <c r="C20">
         <f>C6+F6</f>
-        <v>77.752899999999997</v>
+        <v>93.94</v>
       </c>
       <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>4000</v>
+      </c>
+      <c r="K20">
+        <f>37+0.1488*J20</f>
+        <v>632.19999999999993</v>
+      </c>
+      <c r="M20">
+        <v>4000</v>
+      </c>
+      <c r="N20">
+        <f>37+0.1488*4000-0.0649*4000</f>
+        <v>372.59999999999991</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>750</v>
       </c>
       <c r="B21">
         <f t="shared" si="2"/>
-        <v>108.97290000000001</v>
+        <v>133.41</v>
       </c>
       <c r="C21">
         <f t="shared" ref="C21:C25" si="3">C7+F7</f>
-        <v>101.47290000000001</v>
+        <v>125.91</v>
       </c>
       <c r="D21" s="1">
         <f>D7+F7</f>
-        <v>116.47290000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>140.91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1000</v>
       </c>
       <c r="B22">
         <f t="shared" si="2"/>
-        <v>135.19290000000001</v>
+        <v>167.88</v>
       </c>
       <c r="C22">
         <f t="shared" si="3"/>
-        <v>125.19290000000001</v>
+        <v>157.88</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" ref="D22:D28" si="4">D8+F8</f>
-        <v>145.19290000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>177.88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1250</v>
       </c>
       <c r="B23">
         <f>B9+F9</f>
-        <v>168.91290000000001</v>
+        <v>209.85</v>
       </c>
       <c r="C23">
         <f t="shared" si="3"/>
-        <v>143.91290000000001</v>
+        <v>184.85</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="4"/>
-        <v>181.41290000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>222.35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1500</v>
       </c>
       <c r="C24">
         <f t="shared" si="3"/>
-        <v>157.63290000000001</v>
+        <v>206.82</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="4"/>
-        <v>202.63290000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>251.82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1750</v>
       </c>
       <c r="C25">
         <f t="shared" si="3"/>
-        <v>166.35290000000001</v>
+        <v>223.79</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="4"/>
-        <v>236.35290000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>293.78999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2000</v>
       </c>
       <c r="D26" s="1">
         <f>D12+F12</f>
-        <v>250.0729</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>315.76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3000</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="4"/>
-        <v>374.9529</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>473.64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4000</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="4"/>
-        <v>459.8329</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>591.52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2674,12 +2756,12 @@
         <v>60</v>
       </c>
       <c r="D35">
-        <f>0.0374*C35+0.3129</f>
-        <v>2.5569000000000002</v>
+        <f>$J$2*C35</f>
+        <v>3.8940000000000001</v>
       </c>
       <c r="E35">
         <f t="shared" ref="E35:E45" si="7">B35+D35</f>
-        <v>21.200155024742593</v>
+        <v>22.537255024742592</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2695,12 +2777,12 @@
         <v>120</v>
       </c>
       <c r="D36">
-        <f t="shared" ref="D36:D45" si="8">0.0374*C36+0.3129</f>
-        <v>4.8009000000000004</v>
+        <f t="shared" ref="D36:D45" si="8">$J$2*C36</f>
+        <v>7.7880000000000003</v>
       </c>
       <c r="E36">
         <f t="shared" si="7"/>
-        <v>31.531281044538737</v>
+        <v>34.518381044538735</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2717,11 +2799,11 @@
       </c>
       <c r="D37">
         <f t="shared" si="8"/>
-        <v>9.2889000000000017</v>
+        <v>15.576000000000001</v>
       </c>
       <c r="E37">
         <f t="shared" si="7"/>
-        <v>50.093141152101666</v>
+        <v>56.380241152101668</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2738,11 +2820,11 @@
       </c>
       <c r="D38">
         <f t="shared" si="8"/>
-        <v>13.776900000000001</v>
+        <v>23.364000000000001</v>
       </c>
       <c r="E38">
         <f t="shared" si="7"/>
-        <v>67.632697498656171</v>
+        <v>77.219797498656163</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2759,11 +2841,11 @@
       </c>
       <c r="D39">
         <f t="shared" si="8"/>
-        <v>18.264900000000001</v>
+        <v>31.152000000000001</v>
       </c>
       <c r="E39">
         <f t="shared" si="7"/>
-        <v>84.698546703667773</v>
+        <v>97.585646703667777</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2780,11 +2862,11 @@
       </c>
       <c r="D40">
         <f t="shared" si="8"/>
-        <v>22.7529</v>
+        <v>38.94</v>
       </c>
       <c r="E40">
         <f t="shared" si="7"/>
-        <v>101.48297901912409</v>
+        <v>117.67007901912409</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2801,11 +2883,11 @@
       </c>
       <c r="D41">
         <f t="shared" si="8"/>
-        <v>33.972900000000003</v>
+        <v>58.41</v>
       </c>
       <c r="E41">
         <f t="shared" si="7"/>
-        <v>142.7246953488193</v>
+        <v>167.16179534881928</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2822,11 +2904,11 @@
       </c>
       <c r="D42">
         <f t="shared" si="8"/>
-        <v>45.192900000000002</v>
+        <v>77.88</v>
       </c>
       <c r="E42">
         <f t="shared" si="7"/>
-        <v>183.36428117834345</v>
+        <v>216.05138117834343</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2843,11 +2925,11 @@
       </c>
       <c r="D43">
         <f t="shared" si="8"/>
-        <v>67.632900000000006</v>
+        <v>116.82</v>
       </c>
       <c r="E43">
         <f t="shared" si="7"/>
-        <v>263.68757310494635</v>
+        <v>312.87467310494634</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2864,11 +2946,11 @@
       </c>
       <c r="D44">
         <f t="shared" si="8"/>
-        <v>90.072900000000004</v>
+        <v>155.76</v>
       </c>
       <c r="E44">
         <f t="shared" si="7"/>
-        <v>343.28892640436538</v>
+        <v>408.97602640436537</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2885,11 +2967,11 @@
       </c>
       <c r="D45">
         <f t="shared" si="8"/>
-        <v>134.95290000000003</v>
+        <v>233.64</v>
       </c>
       <c r="E45">
         <f t="shared" si="7"/>
-        <v>501.34555835393985</v>
+        <v>600.03265835393984</v>
       </c>
     </row>
   </sheetData>
